--- a/medicine/Soins infirmiers et profession infirmière/Auxiliaire_de_puériculture/Auxiliaire_de_puériculture.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Auxiliaire_de_puériculture/Auxiliaire_de_puériculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auxiliaire_de_pu%C3%A9riculture</t>
+          <t>Auxiliaire_de_puériculture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le domaine paramédical, la profession d’auxiliaire de puériculture (AP) comprend des activités de soins aux nouveau-nés, à de jeunes enfants et adolescents jusqu'à 18 ans et d’accompagnement durant leur apprentissage. C'est une profession de la santé et du social, de statut d'aide soignant[1]. La fonction inclut la prise en charge des enfants bien portants, malades ou handicapés, au sein d'une équipe pluridisciplinaire, dans de multiples structures d'accueil ou de soins :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine paramédical, la profession d’auxiliaire de puériculture (AP) comprend des activités de soins aux nouveau-nés, à de jeunes enfants et adolescents jusqu'à 18 ans et d’accompagnement durant leur apprentissage. C'est une profession de la santé et du social, de statut d'aide soignant. La fonction inclut la prise en charge des enfants bien portants, malades ou handicapés, au sein d'une équipe pluridisciplinaire, dans de multiples structures d'accueil ou de soins :
 milieu hospitalier : maternité, pédiatrie, urgence pédiatrique, cancérologie, néonatalogie ;
 des structures d'accueil d'enfants de moins de 6 ans : crèche, multi-accueil, halte-garderie, protection maternelle et infantile, foyer mères/enfants, pouponnière ;
 autres : institut médico-éducatif par exemple.
 La formation au métier fournit autant les compétences pour détecter les troubles psychologiques qu'une maladie infantile et les aptitudes pour intervenir en cas de malaise et autres accidents de vie. Elle comprend également une attestation de formation aux gestes et soins d'urgence.
-La profession est largement féminine, avec 98 % d’auxiliaires de puériculture de sexe féminin en France[2].
+La profession est largement féminine, avec 98 % d’auxiliaires de puériculture de sexe féminin en France.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auxiliaire_de_pu%C3%A9riculture</t>
+          <t>Auxiliaire_de_puériculture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En modes d'accueil, l'auxiliaire de puériculture travaille sous la responsabilité du personnel infirmier en puériculture ou d’éducation des jeunes enfants. Selon les structures, l’auxiliaire de puériculture peut travailler sept jours sur sept et vingt-quatre heures sur vingt-quatre (dans la limite de trente-cinq heures par semaine en France), en horaires décalés, de nuits (milieu hospitalier, pouponnière, centre maternel) ou en horaires de jour (crèche, halte-garderie, multiaccueil, PMI…).
 En halte-garderie, en multi-accueil ou en crèche collective le métier s’occupe d'un groupe d'enfants, âgés de deux mois et demi à trois ou quatre ans. Il s’agit de veiller :
@@ -539,10 +553,6 @@
 auprès des enfants nés sous X en attendant le processus d'adoption ;
 également parfois auprès d'enfants handicapés en nombre restreint.
 Son rôle est alors de veiller à la sécurité de l’enfant, à son bien-être et son confort. L'auxiliaire de puériculture participe à toutes les tâches de la vie quotidienne de l’enfant, de son lever à son coucher avec un relationnel privilégié (histoires, comptines, motricité, et nursing) et un relais peut être effectué pour les animations par un éducateur ou une éducatrice de jeunes enfants.
-Compétences
-Les compétences de l'auxiliaire de puériculture sont multiples et permettent aux professionnels de pouvoir analyser rapidement une situation.
-Dans le domaine médical, elles regroupent les techniques de manipulation de patients, les techniques des toilettes au lit, les retournements de patient (seul ou à deux), l'utilisation de matériels, la connaissance d'éléments de bases en obstétrique et les protocoles de soins pré et post-opératoires. Toutes les pathologies de l'enfant (donc de tous les organes et vaisseaux) sont abordées y compris intra-utérines (par exemple transpositions des gros vaisseaux, anomalies chromosomiques, retard de croissance intra-utérin), ainsi les signes de diagnostic, les traitements (médicamenteux ou chirurgicaux), les conduites à tenir, les maladies infantiles (éruptives ou non) et le calendrier vaccinal. L'auxiliaire de puériculture est également capable de préparer une salle d'accouchement, le matériel d'accueil et d'examen de l'enfant et d'assurer la lutte contre les maladies nosocomiales par le respect d'une hygiène stricte et la mise en place d'asepsie.
-Dans les autres domaines l'observation doit être constante, mais d'autres compétences sont nécessaires comme en psychomotricité et en diététique, avec une connaissance des paliers alimentaires, des allergies, des régimes, les régurgitations (reflux gastro-œsophagien), des diarrhées et des constipations. Sont abordés également le domaine morphologique et staturo-pondéral de l'enfant, le comportement, la psychologie et la psychiatrie. Dans ce domaine particulier, des études de cas sont menées sur les terrains de stages avec analyses et solutions possibles.
 </t>
         </is>
       </c>
@@ -553,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auxiliaire_de_pu%C3%A9riculture</t>
+          <t>Auxiliaire_de_puériculture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,13 +578,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Compétences</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les compétences de l'auxiliaire de puériculture sont multiples et permettent aux professionnels de pouvoir analyser rapidement une situation.
+Dans le domaine médical, elles regroupent les techniques de manipulation de patients, les techniques des toilettes au lit, les retournements de patient (seul ou à deux), l'utilisation de matériels, la connaissance d'éléments de bases en obstétrique et les protocoles de soins pré et post-opératoires. Toutes les pathologies de l'enfant (donc de tous les organes et vaisseaux) sont abordées y compris intra-utérines (par exemple transpositions des gros vaisseaux, anomalies chromosomiques, retard de croissance intra-utérin), ainsi les signes de diagnostic, les traitements (médicamenteux ou chirurgicaux), les conduites à tenir, les maladies infantiles (éruptives ou non) et le calendrier vaccinal. L'auxiliaire de puériculture est également capable de préparer une salle d'accouchement, le matériel d'accueil et d'examen de l'enfant et d'assurer la lutte contre les maladies nosocomiales par le respect d'une hygiène stricte et la mise en place d'asepsie.
+Dans les autres domaines l'observation doit être constante, mais d'autres compétences sont nécessaires comme en psychomotricité et en diététique, avec une connaissance des paliers alimentaires, des allergies, des régimes, les régurgitations (reflux gastro-œsophagien), des diarrhées et des constipations. Sont abordés également le domaine morphologique et staturo-pondéral de l'enfant, le comportement, la psychologie et la psychiatrie. Dans ce domaine particulier, des études de cas sont menées sur les terrains de stages avec analyses et solutions possibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_puériculture</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_pu%C3%A9riculture</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France
-Le concours
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le concours
 Seuls les titulaires du diplôme d'État d'auxiliaire de puériculture peuvent exercer ce métier. Pour l’obtenir, il faut suivre une formation dans une école agréée sous tutelle du Ministère de la Santé et contrôlée par la DRJSCS.
 L'entrée en école d'auxiliaire de puériculture est soumise depuis Avril 2020 à une sélection sur dossier. Les candidats doivent récupérer auprès de chaque école un dossier de candidature à compléter et à rendre dans les délais imposés par les instituts de formation afin qu'il soit étudié par un jury. À la suite de quoi, si leur dossier est retenu, ils devront passer un oral de type entretiens avec ce même jury pour finaliser ou non leur acceptation en formation.
 Le dossier est composé de:
@@ -607,12 +661,81 @@
 1 stage en pédiatrie : néonatologie, pédiatrie, oncologie, urgence pédiatrique, chirurgie infantile, radiologie.
 1 stage en maternité
 1 stage en structure d’enfants en situation de handicap physique (Institut Médico-Educatif, Institut d'Éducation Motrice…) ou social (centre maternel, pouponnière)
-Le choix de la structure où se déroule le dernier stage est soit libre (choisi par l’élève en fonction de son projet professionnel), soit imposé par l'école.
-En Belgique
-En Belgique, on ne parle pas d'auxiliaire de puériculture mais de puéricultrice[3].
+Le choix de la structure où se déroule le dernier stage est soit libre (choisi par l’élève en fonction de son projet professionnel), soit imposé par l'école.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_puériculture</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_pu%C3%A9riculture</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, on ne parle pas d'auxiliaire de puériculture mais de puéricultrice.
 La Pédiatrique en Belgique est équivalent à la Puéricultrice en France (Infirmière spécialisée ). Ce n'est donc pas le même niveau scolaire.
-Au Québec
-La formation puis la profession de puéricultrice ou de garde-bébé est graduellement abolie dans la province à compter de la décennie 1960[4],[5]. Les puéricultrices ont été particulièrement présentes à partir de la fin des années 1920 jusqu'aux années 1980. Elles sont apparues dans un contexte où il y avait un très haut taux de mortalité infantile au Québec comparativement à ailleurs au Canada. Elles sont disparues progressivement à partir des années soixante-dix avec la transformation du système de santé et avec une plus grande prise en charge des soins périnataux par le corps médical[6],[7]. En milieu hospitalier, elle est principalement remplacée par une infirmière[8], détentrice d'un diplôme d'études collégiales (DÉC) en soins infirmiers[9] (3 ans d'études post-secondaires).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Auxiliaire_de_puériculture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auxiliaire_de_pu%C3%A9riculture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation puis la profession de puéricultrice ou de garde-bébé est graduellement abolie dans la province à compter de la décennie 1960,. Les puéricultrices ont été particulièrement présentes à partir de la fin des années 1920 jusqu'aux années 1980. Elles sont apparues dans un contexte où il y avait un très haut taux de mortalité infantile au Québec comparativement à ailleurs au Canada. Elles sont disparues progressivement à partir des années soixante-dix avec la transformation du système de santé et avec une plus grande prise en charge des soins périnataux par le corps médical,. En milieu hospitalier, elle est principalement remplacée par une infirmière, détentrice d'un diplôme d'études collégiales (DÉC) en soins infirmiers (3 ans d'études post-secondaires).
 Dans les services de garde, une éducatrice à la petite enfance assume généralement ces fonctions.
 </t>
         </is>
